--- a/_docs/schemas.xlsx
+++ b/_docs/schemas.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EasyPHPDevServer\data\localweb\projects\educational-site\_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EasyPHPDevServer\data\localweb\projects\EducationalSite\_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Исправления" sheetId="3" r:id="rId2"/>
+    <sheet name="Блок тестирования" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,20 +26,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>~70%</t>
   </si>
   <si>
     <t>IFRAME
 по умолчанию загружать в iframe какую-нибудь страницу</t>
+  </si>
+  <si>
+    <t>Какого цвета небо?</t>
+  </si>
+  <si>
+    <t>Красного</t>
+  </si>
+  <si>
+    <t>Зелёного</t>
+  </si>
+  <si>
+    <t>Голубого</t>
+  </si>
+  <si>
+    <t>Проверить</t>
+  </si>
+  <si>
+    <t>Кто из этих животных является млекопитающим?</t>
+  </si>
+  <si>
+    <t>Кит</t>
+  </si>
+  <si>
+    <t>Паук</t>
+  </si>
+  <si>
+    <t>Волк</t>
+  </si>
+  <si>
+    <t>Вопрос на сопоставление:</t>
+  </si>
+  <si>
+    <t>Сопоставьте:</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>STYLE</t>
+  </si>
+  <si>
+    <t>ALIGN</t>
+  </si>
+  <si>
+    <t>REL</t>
+  </si>
+  <si>
+    <t>SCROLLING</t>
+  </si>
+  <si>
+    <t>HREF</t>
+  </si>
+  <si>
+    <t>Содержит адрес, загружаемого во фрейм, документа</t>
+  </si>
+  <si>
+    <t>ниспадающий список</t>
+  </si>
+  <si>
+    <t>В каждом списке содержатся элементы:</t>
+  </si>
+  <si>
+    <t>– встроенная информация CSS</t>
+  </si>
+  <si>
+    <t>Задает выравнивание окна фрейма</t>
+  </si>
+  <si>
+    <t>указывает отношение текущего документа к документу, на который ссылается атрибут HREF</t>
+  </si>
+  <si>
+    <t>указывает браузеру, можно или нет создавать полосу прокрутки</t>
+  </si>
+  <si>
+    <t>– указывает базовый URI для всех относительных ссылок в документе</t>
+  </si>
+  <si>
+    <t>Вопрос на дополнение:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Впишите ответ (без угловых скобок): </t>
+  </si>
+  <si>
+    <t>Элемент таблицы, содержащий в себе ее отдельную строку – это</t>
+  </si>
+  <si>
+    <t>текстовое поле</t>
+  </si>
+  <si>
+    <t>Вопрос на установление последовательности:</t>
+  </si>
+  <si>
+    <t>1. Установите последовательность в порядке убывания по иерерхии:</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>HEAD</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>ниспадающий список с числами 1,2, 3</t>
+  </si>
+  <si>
+    <t>Ответ неверный</t>
+  </si>
+  <si>
+    <t>Показать правильный ответ</t>
+  </si>
+  <si>
+    <t>Ответ верный</t>
+  </si>
+  <si>
+    <t>Далее</t>
+  </si>
+  <si>
+    <t>1. Сделать нормальную стартовую страницу;</t>
+  </si>
+  <si>
+    <t>2. Отменить назначение цвета текста в классе maintext.</t>
+  </si>
+  <si>
+    <t>3. Проконтролировать отсутствие кириллических симоволов в именах файлов</t>
+  </si>
+  <si>
+    <t>4. Заменить в левом вертикальном меню тексты ссылок на релевантные (названия моделей)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .maintext 
+{
+ margin-top: 0px;
+ margin-left: 0px;
+ margin-right: 2%;
+ margin-bottom: 0%;
+ padding-left: 2%;
+ padding-top: 1%;
+ padding-bottom:1%;
+ font-family:"Palatino Linotype", "Book Antiqua", Palatino, serif;
+ font-style:normal;
+ font-size:18px;
+ color: #000;
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,8 +193,53 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,8 +252,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -220,11 +430,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -235,15 +482,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -251,6 +489,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -314,6 +584,503 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Блок-схема: узел 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="581025"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Блок-схема: узел 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="962025"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Блок-схема: узел 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="1333500"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Скругленный прямоугольник 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="581025"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Скругленный прямоугольник 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="952500"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Скругленный прямоугольник 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="1333500"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Скругленный прямоугольник 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="581025"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Скругленный прямоугольник 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="952500"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Скругленный прямоугольник 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2600325" y="1333500"/>
+          <a:ext cx="200025" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -584,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D15"/>
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,14 +1427,14 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="14"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="5"/>
       <c r="S6" s="6"/>
     </row>
@@ -680,21 +1447,21 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="15"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="15"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="5"/>
       <c r="S7" s="6"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
@@ -713,20 +1480,20 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -735,18 +1502,18 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -755,8 +1522,8 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
       <c r="G11" s="5"/>
@@ -781,97 +1548,97 @@
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
       <c r="R12" s="5"/>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
       <c r="R13" s="5"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
       <c r="R14" s="5"/>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
       <c r="R15" s="5"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
       <c r="R16" s="5"/>
       <c r="S16" s="6"/>
     </row>
@@ -883,95 +1650,95 @@
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
       <c r="R17" s="5"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
       <c r="R18" s="5"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
       <c r="R19" s="5"/>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
       <c r="R20" s="5"/>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
     </row>
@@ -983,15 +1750,15 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
       <c r="R22" s="5"/>
       <c r="S22" s="6"/>
     </row>
@@ -1063,4 +1830,545 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:Q62"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10:Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="M6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="E10" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="H10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="O10" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+    </row>
+    <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="22"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="22"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="22"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C49" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="51" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C51" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="22"/>
+    </row>
+    <row r="56" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C56" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="22"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="H4:J8"/>
+    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="O4:Q8"/>
+    <mergeCell ref="O10:Q11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/_docs/schemas.xlsx
+++ b/_docs/schemas.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Исправления" sheetId="3" r:id="rId2"/>
     <sheet name="Блок тестирования" sheetId="2" r:id="rId3"/>
+    <sheet name="Тестирование" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>~70%</t>
   </si>
@@ -179,12 +180,48 @@
  color: #000;
 }</t>
   </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>input[type="text"]</t>
+  </si>
+  <si>
+    <t>Элемент с правильным выбором имеет value="true"</t>
+  </si>
+  <si>
+    <t>Правильный ответ передаётся в качестве параметра функции checkFieldValue('[правильный ответ]')</t>
+  </si>
+  <si>
+    <t>Ячейка для ввода ответа должна иметь id="answer-field"</t>
+  </si>
+  <si>
+    <t>Аналогично select</t>
+  </si>
+  <si>
+    <t>&lt;button class="check" type="button" onclick="checkRadios()"&gt;Проверить&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button class="check" type="button" onclick="checkSelects()"&gt;Проверить&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button class="check" type="button" onclick="checkCheckBoxses()"&gt;Проверить&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t>&lt;button class="check" type="button" onclick="checkFieldValue('[правильный ответ]')"&gt;Проверить&lt;/button&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +270,23 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -468,10 +522,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -497,6 +552,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,11 +576,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1351,7 +1410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1488,12 +1547,12 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -1510,10 +1569,10 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -1548,17 +1607,17 @@
       <c r="F12" s="4"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
       <c r="R12" s="5"/>
       <c r="S12" s="6"/>
     </row>
@@ -1570,15 +1629,15 @@
       <c r="F13" s="4"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
       <c r="R13" s="5"/>
       <c r="S13" s="6"/>
     </row>
@@ -1590,15 +1649,15 @@
       <c r="F14" s="4"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
       <c r="R14" s="5"/>
       <c r="S14" s="6"/>
     </row>
@@ -1610,15 +1669,15 @@
       <c r="F15" s="4"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
       <c r="R15" s="5"/>
       <c r="S15" s="6"/>
     </row>
@@ -1630,15 +1689,15 @@
       <c r="F16" s="4"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
       <c r="R16" s="5"/>
       <c r="S16" s="6"/>
     </row>
@@ -1650,15 +1709,15 @@
       <c r="F17" s="4"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
       <c r="R17" s="5"/>
       <c r="S17" s="6"/>
     </row>
@@ -1670,15 +1729,15 @@
       <c r="F18" s="4"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
       <c r="R18" s="5"/>
       <c r="S18" s="6"/>
     </row>
@@ -1690,15 +1749,15 @@
       <c r="F19" s="4"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
       <c r="R19" s="5"/>
       <c r="S19" s="6"/>
     </row>
@@ -1710,15 +1769,15 @@
       <c r="F20" s="4"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
       <c r="R20" s="5"/>
       <c r="S20" s="6"/>
     </row>
@@ -1730,15 +1789,15 @@
       <c r="F21" s="4"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
       <c r="R21" s="5"/>
       <c r="S21" s="6"/>
     </row>
@@ -1750,15 +1809,15 @@
       <c r="F22" s="4"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
       <c r="R22" s="5"/>
       <c r="S22" s="6"/>
     </row>
@@ -1836,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,7 +1925,7 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1900,27 +1959,27 @@
       <c r="F4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
       <c r="M4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1929,23 +1988,23 @@
       <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
       <c r="M6" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1954,15 +2013,15 @@
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
       <c r="M8" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H9" s="24"/>
@@ -1970,36 +2029,36 @@
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="B10" s="29"/>
+      <c r="E10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="H10" s="30" t="s">
+      <c r="F10" s="29"/>
+      <c r="H10" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="O10" s="30" t="s">
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="O10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
     </row>
     <row r="15" spans="1:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="19" t="s">
@@ -2371,4 +2430,76 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="95.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5703125" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Тестирование!A1" display="Аналогично select"/>
+    <hyperlink ref="B3" location="Тестирование!A1" display="Аналогично select"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>